--- a/Documentación/Cronograma.xlsx
+++ b/Documentación/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52646\Desktop\ProyectoBDITE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04054188-C719-47B6-B80B-5F18C3018C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E164BD0-E133-47FC-9BF1-E2ECD0A4AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77C97420-D882-4AEC-80C4-94E9F25F4DD9}"/>
   </bookViews>
@@ -906,39 +906,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,6 +940,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770ABD26-0474-45FB-9EFD-7F425FDDCB3A}">
   <dimension ref="A1:EF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,130 +1339,130 @@
       <c r="E1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
-      <c r="BL1" s="52"/>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="52"/>
-      <c r="BO1" s="52"/>
-      <c r="BP1" s="52"/>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="52"/>
-      <c r="BS1" s="52"/>
-      <c r="BT1" s="52"/>
-      <c r="BU1" s="52"/>
-      <c r="BV1" s="52"/>
-      <c r="BW1" s="52"/>
-      <c r="BX1" s="52"/>
-      <c r="BY1" s="52"/>
-      <c r="BZ1" s="52"/>
-      <c r="CA1" s="52"/>
-      <c r="CB1" s="52"/>
-      <c r="CC1" s="52"/>
-      <c r="CD1" s="52"/>
-      <c r="CE1" s="52"/>
-      <c r="CF1" s="52"/>
-      <c r="CG1" s="52"/>
-      <c r="CH1" s="52"/>
-      <c r="CI1" s="52"/>
-      <c r="CJ1" s="52"/>
-      <c r="CK1" s="52"/>
-      <c r="CL1" s="52"/>
-      <c r="CM1" s="52"/>
-      <c r="CN1" s="52"/>
-      <c r="CO1" s="52"/>
-      <c r="CP1" s="52"/>
-      <c r="CQ1" s="52"/>
-      <c r="CR1" s="52"/>
-      <c r="CS1" s="52"/>
-      <c r="CT1" s="52"/>
-      <c r="CU1" s="52"/>
-      <c r="CV1" s="52"/>
-      <c r="CW1" s="52"/>
-      <c r="CX1" s="52"/>
-      <c r="CY1" s="52"/>
-      <c r="CZ1" s="52"/>
-      <c r="DA1" s="52"/>
-      <c r="DB1" s="52"/>
-      <c r="DC1" s="52"/>
-      <c r="DD1" s="52"/>
-      <c r="DE1" s="52"/>
-      <c r="DF1" s="52"/>
-      <c r="DG1" s="52"/>
-      <c r="DH1" s="52"/>
-      <c r="DI1" s="52"/>
-      <c r="DJ1" s="52"/>
-      <c r="DK1" s="52"/>
-      <c r="DL1" s="52"/>
-      <c r="DM1" s="52"/>
-      <c r="DN1" s="52"/>
-      <c r="DO1" s="52"/>
-      <c r="DP1" s="52"/>
-      <c r="DQ1" s="52"/>
-      <c r="DR1" s="52"/>
-      <c r="DS1" s="52"/>
-      <c r="DT1" s="52"/>
-      <c r="DU1" s="52"/>
-      <c r="DV1" s="52"/>
-      <c r="DW1" s="52"/>
-      <c r="DX1" s="52"/>
-      <c r="DY1" s="52"/>
-      <c r="DZ1" s="52"/>
-      <c r="EA1" s="52"/>
-      <c r="EB1" s="52"/>
-      <c r="EC1" s="52"/>
-      <c r="ED1" s="52"/>
-      <c r="EE1" s="52"/>
-      <c r="EF1" s="52"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="69"/>
+      <c r="BD1" s="69"/>
+      <c r="BE1" s="69"/>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="69"/>
+      <c r="BL1" s="69"/>
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
+      <c r="BS1" s="69"/>
+      <c r="BT1" s="69"/>
+      <c r="BU1" s="69"/>
+      <c r="BV1" s="69"/>
+      <c r="BW1" s="69"/>
+      <c r="BX1" s="69"/>
+      <c r="BY1" s="69"/>
+      <c r="BZ1" s="69"/>
+      <c r="CA1" s="69"/>
+      <c r="CB1" s="69"/>
+      <c r="CC1" s="69"/>
+      <c r="CD1" s="69"/>
+      <c r="CE1" s="69"/>
+      <c r="CF1" s="69"/>
+      <c r="CG1" s="69"/>
+      <c r="CH1" s="69"/>
+      <c r="CI1" s="69"/>
+      <c r="CJ1" s="69"/>
+      <c r="CK1" s="69"/>
+      <c r="CL1" s="69"/>
+      <c r="CM1" s="69"/>
+      <c r="CN1" s="69"/>
+      <c r="CO1" s="69"/>
+      <c r="CP1" s="69"/>
+      <c r="CQ1" s="69"/>
+      <c r="CR1" s="69"/>
+      <c r="CS1" s="69"/>
+      <c r="CT1" s="69"/>
+      <c r="CU1" s="69"/>
+      <c r="CV1" s="69"/>
+      <c r="CW1" s="69"/>
+      <c r="CX1" s="69"/>
+      <c r="CY1" s="69"/>
+      <c r="CZ1" s="69"/>
+      <c r="DA1" s="69"/>
+      <c r="DB1" s="69"/>
+      <c r="DC1" s="69"/>
+      <c r="DD1" s="69"/>
+      <c r="DE1" s="69"/>
+      <c r="DF1" s="69"/>
+      <c r="DG1" s="69"/>
+      <c r="DH1" s="69"/>
+      <c r="DI1" s="69"/>
+      <c r="DJ1" s="69"/>
+      <c r="DK1" s="69"/>
+      <c r="DL1" s="69"/>
+      <c r="DM1" s="69"/>
+      <c r="DN1" s="69"/>
+      <c r="DO1" s="69"/>
+      <c r="DP1" s="69"/>
+      <c r="DQ1" s="69"/>
+      <c r="DR1" s="69"/>
+      <c r="DS1" s="69"/>
+      <c r="DT1" s="69"/>
+      <c r="DU1" s="69"/>
+      <c r="DV1" s="69"/>
+      <c r="DW1" s="69"/>
+      <c r="DX1" s="69"/>
+      <c r="DY1" s="69"/>
+      <c r="DZ1" s="69"/>
+      <c r="EA1" s="69"/>
+      <c r="EB1" s="69"/>
+      <c r="EC1" s="69"/>
+      <c r="ED1" s="69"/>
+      <c r="EE1" s="69"/>
+      <c r="EF1" s="69"/>
     </row>
     <row r="2" spans="1:136" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -1474,107 +1474,107 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="AC2" s="62" t="s">
+      <c r="J2" s="72"/>
+      <c r="AC2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="59" t="s">
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="59"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="59"/>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="59"/>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="59"/>
-      <c r="BX2" s="60" t="s">
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74"/>
+      <c r="BG2" s="74"/>
+      <c r="BH2" s="74"/>
+      <c r="BI2" s="74"/>
+      <c r="BJ2" s="74"/>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
+      <c r="BR2" s="74"/>
+      <c r="BS2" s="74"/>
+      <c r="BT2" s="74"/>
+      <c r="BU2" s="74"/>
+      <c r="BV2" s="74"/>
+      <c r="BW2" s="74"/>
+      <c r="BX2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="BY2" s="60"/>
-      <c r="BZ2" s="60"/>
-      <c r="CA2" s="60"/>
-      <c r="CB2" s="60"/>
-      <c r="CC2" s="60"/>
-      <c r="CD2" s="60"/>
-      <c r="CE2" s="60"/>
-      <c r="CF2" s="60"/>
-      <c r="CG2" s="60"/>
-      <c r="CH2" s="60"/>
-      <c r="CI2" s="60"/>
-      <c r="CJ2" s="60"/>
-      <c r="CK2" s="60"/>
-      <c r="CL2" s="60"/>
-      <c r="CM2" s="60"/>
-      <c r="CN2" s="60"/>
-      <c r="CO2" s="60"/>
-      <c r="CP2" s="60"/>
-      <c r="CQ2" s="60"/>
-      <c r="CR2" s="60"/>
-      <c r="CS2" s="60"/>
-      <c r="CT2" s="60"/>
-      <c r="CU2" s="60"/>
-      <c r="CV2" s="60"/>
-      <c r="CW2" s="60"/>
-      <c r="CX2" s="60"/>
-      <c r="CY2" s="60"/>
-      <c r="CZ2" s="60"/>
-      <c r="DA2" s="60"/>
-      <c r="DB2" s="60"/>
-      <c r="DC2" s="61" t="s">
+      <c r="BY2" s="75"/>
+      <c r="BZ2" s="75"/>
+      <c r="CA2" s="75"/>
+      <c r="CB2" s="75"/>
+      <c r="CC2" s="75"/>
+      <c r="CD2" s="75"/>
+      <c r="CE2" s="75"/>
+      <c r="CF2" s="75"/>
+      <c r="CG2" s="75"/>
+      <c r="CH2" s="75"/>
+      <c r="CI2" s="75"/>
+      <c r="CJ2" s="75"/>
+      <c r="CK2" s="75"/>
+      <c r="CL2" s="75"/>
+      <c r="CM2" s="75"/>
+      <c r="CN2" s="75"/>
+      <c r="CO2" s="75"/>
+      <c r="CP2" s="75"/>
+      <c r="CQ2" s="75"/>
+      <c r="CR2" s="75"/>
+      <c r="CS2" s="75"/>
+      <c r="CT2" s="75"/>
+      <c r="CU2" s="75"/>
+      <c r="CV2" s="75"/>
+      <c r="CW2" s="75"/>
+      <c r="CX2" s="75"/>
+      <c r="CY2" s="75"/>
+      <c r="CZ2" s="75"/>
+      <c r="DA2" s="75"/>
+      <c r="DB2" s="75"/>
+      <c r="DC2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="DD2" s="61"/>
-      <c r="DE2" s="61"/>
-      <c r="DF2" s="61"/>
-      <c r="DG2" s="61"/>
-      <c r="DH2" s="61"/>
-      <c r="DI2" s="61"/>
-      <c r="DJ2" s="61"/>
-      <c r="DK2" s="61"/>
-      <c r="DL2" s="61"/>
-      <c r="DM2" s="61"/>
+      <c r="DD2" s="76"/>
+      <c r="DE2" s="76"/>
+      <c r="DF2" s="76"/>
+      <c r="DG2" s="76"/>
+      <c r="DH2" s="76"/>
+      <c r="DI2" s="76"/>
+      <c r="DJ2" s="76"/>
+      <c r="DK2" s="76"/>
+      <c r="DL2" s="76"/>
+      <c r="DM2" s="76"/>
     </row>
     <row r="3" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -1588,117 +1588,117 @@
       <c r="E3" s="5"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
-      <c r="AC3" s="56" t="s">
+      <c r="AC3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="57" t="s">
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="56" t="s">
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="56" t="s">
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="56" t="s">
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="66"/>
+      <c r="BH3" s="66"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="58"/>
-      <c r="BQ3" s="56" t="s">
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="66"/>
+      <c r="BM3" s="66"/>
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="66"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="57"/>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="58"/>
-      <c r="BX3" s="56" t="s">
+      <c r="BR3" s="66"/>
+      <c r="BS3" s="66"/>
+      <c r="BT3" s="66"/>
+      <c r="BU3" s="66"/>
+      <c r="BV3" s="66"/>
+      <c r="BW3" s="67"/>
+      <c r="BX3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="BY3" s="57"/>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="58"/>
-      <c r="CE3" s="56" t="s">
+      <c r="BY3" s="66"/>
+      <c r="BZ3" s="66"/>
+      <c r="CA3" s="66"/>
+      <c r="CB3" s="66"/>
+      <c r="CC3" s="66"/>
+      <c r="CD3" s="67"/>
+      <c r="CE3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="CF3" s="57"/>
-      <c r="CG3" s="57"/>
-      <c r="CH3" s="57"/>
-      <c r="CI3" s="57"/>
-      <c r="CJ3" s="57"/>
-      <c r="CK3" s="58"/>
-      <c r="CL3" s="56" t="s">
+      <c r="CF3" s="66"/>
+      <c r="CG3" s="66"/>
+      <c r="CH3" s="66"/>
+      <c r="CI3" s="66"/>
+      <c r="CJ3" s="66"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="CM3" s="57"/>
-      <c r="CN3" s="57"/>
-      <c r="CO3" s="57"/>
-      <c r="CP3" s="57"/>
-      <c r="CQ3" s="57"/>
-      <c r="CR3" s="58"/>
-      <c r="CS3" s="56" t="s">
+      <c r="CM3" s="66"/>
+      <c r="CN3" s="66"/>
+      <c r="CO3" s="66"/>
+      <c r="CP3" s="66"/>
+      <c r="CQ3" s="66"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="CT3" s="57"/>
-      <c r="CU3" s="57"/>
-      <c r="CV3" s="57"/>
-      <c r="CW3" s="57"/>
-      <c r="CX3" s="57"/>
-      <c r="CY3" s="57"/>
-      <c r="CZ3" s="57"/>
-      <c r="DA3" s="57"/>
-      <c r="DB3" s="58"/>
-      <c r="DC3" s="56" t="s">
+      <c r="CT3" s="66"/>
+      <c r="CU3" s="66"/>
+      <c r="CV3" s="66"/>
+      <c r="CW3" s="66"/>
+      <c r="CX3" s="66"/>
+      <c r="CY3" s="66"/>
+      <c r="CZ3" s="66"/>
+      <c r="DA3" s="66"/>
+      <c r="DB3" s="67"/>
+      <c r="DC3" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="DD3" s="57"/>
-      <c r="DE3" s="57"/>
-      <c r="DF3" s="57"/>
-      <c r="DG3" s="57"/>
-      <c r="DH3" s="57"/>
-      <c r="DI3" s="57"/>
-      <c r="DJ3" s="57"/>
-      <c r="DK3" s="57"/>
-      <c r="DL3" s="57"/>
-      <c r="DM3" s="58"/>
+      <c r="DD3" s="66"/>
+      <c r="DE3" s="66"/>
+      <c r="DF3" s="66"/>
+      <c r="DG3" s="66"/>
+      <c r="DH3" s="66"/>
+      <c r="DI3" s="66"/>
+      <c r="DJ3" s="66"/>
+      <c r="DK3" s="66"/>
+      <c r="DL3" s="66"/>
+      <c r="DM3" s="67"/>
     </row>
     <row r="4" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -1783,7 +1783,7 @@
       <c r="AI4" s="36">
         <v>21</v>
       </c>
-      <c r="AJ4" s="64">
+      <c r="AJ4" s="53">
         <v>22</v>
       </c>
       <c r="AK4" s="28">
@@ -2106,7 +2106,7 @@
       <c r="L5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="52" t="s">
         <v>41</v>
       </c>
       <c r="O5" s="30"/>
@@ -2123,14 +2123,14 @@
       <c r="Z5" s="30"/>
       <c r="AA5" s="30"/>
       <c r="AB5" s="32"/>
-      <c r="AC5" s="70"/>
+      <c r="AC5" s="59"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="5"/>
-      <c r="AJ5" s="65"/>
+      <c r="AJ5" s="54"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
@@ -2242,14 +2242,14 @@
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="70"/>
       <c r="L6" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="52">
         <v>3</v>
       </c>
       <c r="O6" s="30"/>
@@ -2266,13 +2266,13 @@
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
       <c r="AB6" s="32"/>
-      <c r="AC6" s="70"/>
+      <c r="AC6" s="59"/>
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
-      <c r="AI6" s="71"/>
+      <c r="AI6" s="60"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
@@ -2395,7 +2395,7 @@
       <c r="L7" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="52">
         <v>4</v>
       </c>
       <c r="O7" s="30"/>
@@ -2412,14 +2412,14 @@
       <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
       <c r="AB7" s="32"/>
-      <c r="AC7" s="72"/>
+      <c r="AC7" s="61"/>
       <c r="AD7" s="51"/>
       <c r="AE7" s="51"/>
       <c r="AF7" s="51"/>
       <c r="AG7" s="51"/>
       <c r="AH7" s="51"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="66"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="55"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
@@ -2538,7 +2538,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="13"/>
-      <c r="N8" s="63">
+      <c r="N8" s="52">
         <v>5</v>
       </c>
       <c r="O8" s="30"/>
@@ -2555,14 +2555,14 @@
       <c r="Z8" s="30"/>
       <c r="AA8" s="30"/>
       <c r="AB8" s="32"/>
-      <c r="AC8" s="74"/>
+      <c r="AC8" s="63"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="26"/>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="5"/>
-      <c r="AJ8" s="65"/>
+      <c r="AJ8" s="54"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
@@ -2681,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="13"/>
-      <c r="N9" s="63">
+      <c r="N9" s="52">
         <v>6</v>
       </c>
       <c r="O9" s="30"/>
@@ -2704,8 +2704,8 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="27"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="67"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="56"/>
       <c r="AK9" s="27"/>
       <c r="AL9" s="27"/>
       <c r="AM9" s="27"/>
@@ -2824,7 +2824,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="N10" s="63">
+      <c r="N10" s="52">
         <v>7</v>
       </c>
       <c r="O10" s="30"/>
@@ -2841,14 +2841,14 @@
       <c r="Z10" s="30"/>
       <c r="AA10" s="30"/>
       <c r="AB10" s="32"/>
-      <c r="AC10" s="74"/>
+      <c r="AC10" s="63"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
       <c r="AH10" s="26"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="68"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="57"/>
       <c r="AK10" s="26"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -2967,7 +2967,7 @@
         <v>11</v>
       </c>
       <c r="J11" s="16"/>
-      <c r="N11" s="63">
+      <c r="N11" s="52">
         <v>9</v>
       </c>
       <c r="O11" s="30"/>
@@ -2991,7 +2991,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="5"/>
-      <c r="AJ11" s="65"/>
+      <c r="AJ11" s="54"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
@@ -3110,7 +3110,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="18"/>
-      <c r="N12" s="63">
+      <c r="N12" s="52">
         <v>10</v>
       </c>
       <c r="O12" s="30"/>
@@ -3134,7 +3134,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="5"/>
-      <c r="AJ12" s="65"/>
+      <c r="AJ12" s="54"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="26"/>
       <c r="AM12" s="26"/>
@@ -3253,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="16"/>
-      <c r="N13" s="63">
+      <c r="N13" s="52">
         <v>11</v>
       </c>
       <c r="O13" s="30"/>
@@ -3277,7 +3277,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="5"/>
-      <c r="AJ13" s="65"/>
+      <c r="AJ13" s="54"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="26"/>
       <c r="AM13" s="26"/>
@@ -3396,7 +3396,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="18"/>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="52" t="s">
         <v>42</v>
       </c>
       <c r="O14" s="30"/>
@@ -3420,7 +3420,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="65"/>
+      <c r="AJ14" s="54"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -3539,7 +3539,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="N15" s="63" t="s">
+      <c r="N15" s="52" t="s">
         <v>43</v>
       </c>
       <c r="O15" s="30"/>
@@ -3563,7 +3563,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="65"/>
+      <c r="AJ15" s="54"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
@@ -3682,7 +3682,7 @@
         <v>27</v>
       </c>
       <c r="J16" s="16"/>
-      <c r="N16" s="63">
+      <c r="N16" s="52">
         <v>13</v>
       </c>
       <c r="O16" s="30"/>
@@ -3706,7 +3706,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="5"/>
-      <c r="AJ16" s="65"/>
+      <c r="AJ16" s="54"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -3827,7 +3827,7 @@
       <c r="J17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="63">
+      <c r="N17" s="52">
         <v>14</v>
       </c>
       <c r="O17" s="30"/>
@@ -3851,7 +3851,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="65"/>
+      <c r="AJ17" s="54"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -3972,7 +3972,7 @@
       <c r="J18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="63"/>
+      <c r="N18" s="52"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
@@ -3994,7 +3994,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="5"/>
-      <c r="AJ18" s="65"/>
+      <c r="AJ18" s="54"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -4113,7 +4113,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="49"/>
-      <c r="N19" s="63"/>
+      <c r="N19" s="52"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
@@ -4135,7 +4135,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="65"/>
+      <c r="AJ19" s="54"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
@@ -4254,7 +4254,7 @@
         <v>28</v>
       </c>
       <c r="J20" s="18"/>
-      <c r="N20" s="63"/>
+      <c r="N20" s="52"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
@@ -4276,7 +4276,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="65"/>
+      <c r="AJ20" s="54"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
@@ -4395,7 +4395,7 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
-      <c r="N21" s="63"/>
+      <c r="N21" s="52"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
@@ -4417,7 +4417,7 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="65"/>
+      <c r="AJ21" s="54"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
@@ -4531,7 +4531,7 @@
       <c r="E22" s="5"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
-      <c r="N22" s="63"/>
+      <c r="N22" s="52"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
@@ -4553,7 +4553,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="5"/>
-      <c r="AJ22" s="65"/>
+      <c r="AJ22" s="54"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
@@ -4667,7 +4667,7 @@
       <c r="E23" s="5"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
-      <c r="N23" s="63"/>
+      <c r="N23" s="52"/>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
@@ -4689,7 +4689,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="5"/>
-      <c r="AJ23" s="65"/>
+      <c r="AJ23" s="54"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
@@ -4801,7 +4801,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="1"/>
       <c r="E24" s="5"/>
-      <c r="N24" s="63"/>
+      <c r="N24" s="52"/>
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
@@ -4823,7 +4823,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="5"/>
-      <c r="AJ24" s="65"/>
+      <c r="AJ24" s="54"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
@@ -4935,7 +4935,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
-      <c r="N25" s="63"/>
+      <c r="N25" s="52"/>
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
@@ -4957,7 +4957,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="5"/>
-      <c r="AJ25" s="65"/>
+      <c r="AJ25" s="54"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
@@ -5072,7 +5072,7 @@
       <c r="I26" t="s">
         <v>44</v>
       </c>
-      <c r="N26" s="63"/>
+      <c r="N26" s="52"/>
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
@@ -5094,7 +5094,7 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="65"/>
+      <c r="AJ26" s="54"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
@@ -5197,7 +5197,7 @@
       <c r="EF26" s="30"/>
     </row>
     <row r="27" spans="1:136" x14ac:dyDescent="0.25">
-      <c r="N27" s="63"/>
+      <c r="N27" s="52"/>
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
@@ -5219,7 +5219,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="65"/>
+      <c r="AJ27" s="54"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
@@ -5322,7 +5322,7 @@
       <c r="EF27" s="30"/>
     </row>
     <row r="28" spans="1:136" x14ac:dyDescent="0.25">
-      <c r="N28" s="63"/>
+      <c r="N28" s="52"/>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
@@ -5344,7 +5344,7 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="65"/>
+      <c r="AJ28" s="54"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -5447,7 +5447,7 @@
       <c r="EF28" s="30"/>
     </row>
     <row r="29" spans="1:136" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N29" s="63"/>
+      <c r="N29" s="52"/>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
@@ -5469,7 +5469,7 @@
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="69"/>
+      <c r="AJ29" s="58"/>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
@@ -5572,10 +5572,10 @@
       <c r="EF29" s="30"/>
     </row>
     <row r="30" spans="1:136" x14ac:dyDescent="0.25">
-      <c r="N30" s="63"/>
+      <c r="N30" s="52"/>
     </row>
     <row r="31" spans="1:136" x14ac:dyDescent="0.25">
-      <c r="N31" s="63"/>
+      <c r="N31" s="52"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -5586,7 +5586,7 @@
       <c r="V31" s="3"/>
     </row>
     <row r="32" spans="1:136" x14ac:dyDescent="0.25">
-      <c r="N32" s="63"/>
+      <c r="N32" s="52"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -5597,7 +5597,7 @@
       <c r="V32" s="3"/>
     </row>
     <row r="33" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N33" s="63"/>
+      <c r="N33" s="52"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -5608,7 +5608,7 @@
       <c r="V33" s="3"/>
     </row>
     <row r="34" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N34" s="63"/>
+      <c r="N34" s="52"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -5619,7 +5619,7 @@
       <c r="V34" s="3"/>
     </row>
     <row r="35" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N35" s="63"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -5630,7 +5630,7 @@
       <c r="V35" s="3"/>
     </row>
     <row r="36" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N36" s="63"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -5641,7 +5641,7 @@
       <c r="V36" s="3"/>
     </row>
     <row r="37" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N37" s="63"/>
+      <c r="N37" s="52"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -5652,7 +5652,7 @@
       <c r="V37" s="3"/>
     </row>
     <row r="38" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N38" s="63"/>
+      <c r="N38" s="52"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -5663,7 +5663,7 @@
       <c r="V38" s="3"/>
     </row>
     <row r="39" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N39" s="63"/>
+      <c r="N39" s="52"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -5674,7 +5674,7 @@
       <c r="V39" s="3"/>
     </row>
     <row r="40" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N40" s="63"/>
+      <c r="N40" s="52"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -5685,7 +5685,7 @@
       <c r="V40" s="3"/>
     </row>
     <row r="41" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N41" s="63"/>
+      <c r="N41" s="52"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -5696,7 +5696,7 @@
       <c r="V41" s="3"/>
     </row>
     <row r="42" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N42" s="63"/>
+      <c r="N42" s="52"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -5707,7 +5707,7 @@
       <c r="V42" s="3"/>
     </row>
     <row r="43" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N43" s="63"/>
+      <c r="N43" s="52"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -5718,7 +5718,7 @@
       <c r="V43" s="3"/>
     </row>
     <row r="44" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N44" s="63"/>
+      <c r="N44" s="52"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -5729,7 +5729,7 @@
       <c r="V44" s="3"/>
     </row>
     <row r="45" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N45" s="63"/>
+      <c r="N45" s="52"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -5740,7 +5740,7 @@
       <c r="V45" s="3"/>
     </row>
     <row r="46" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N46" s="63"/>
+      <c r="N46" s="52"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -5852,6 +5852,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="BX3:CD3"/>
+    <mergeCell ref="AC3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AC2:AS2"/>
     <mergeCell ref="O1:EF1"/>
@@ -5868,8 +5870,6 @@
     <mergeCell ref="BC3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
     <mergeCell ref="BQ3:BW3"/>
-    <mergeCell ref="BX3:CD3"/>
-    <mergeCell ref="AC3:AI3"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E26">
     <cfRule type="iconSet" priority="1">

--- a/Documentación/Cronograma.xlsx
+++ b/Documentación/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52646\Desktop\ProyectoBDITE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E164BD0-E133-47FC-9BF1-E2ECD0A4AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FA43F-C2A7-4E38-9FFD-055D22F5C0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77C97420-D882-4AEC-80C4-94E9F25F4DD9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Marzo</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Crear recuperación</t>
+  </si>
+  <si>
+    <t>Invesitigar como subir imágenes a gitHub como en el README</t>
   </si>
 </sst>
 </file>
@@ -942,6 +945,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,9 +967,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1299,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770ABD26-0474-45FB-9EFD-7F425FDDCB3A}">
   <dimension ref="A1:EF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ31" sqref="AJ31"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,130 +1342,130 @@
       <c r="E1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="69"/>
-      <c r="BA1" s="69"/>
-      <c r="BB1" s="69"/>
-      <c r="BC1" s="69"/>
-      <c r="BD1" s="69"/>
-      <c r="BE1" s="69"/>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="69"/>
-      <c r="BH1" s="69"/>
-      <c r="BI1" s="69"/>
-      <c r="BJ1" s="69"/>
-      <c r="BK1" s="69"/>
-      <c r="BL1" s="69"/>
-      <c r="BM1" s="69"/>
-      <c r="BN1" s="69"/>
-      <c r="BO1" s="69"/>
-      <c r="BP1" s="69"/>
-      <c r="BQ1" s="69"/>
-      <c r="BR1" s="69"/>
-      <c r="BS1" s="69"/>
-      <c r="BT1" s="69"/>
-      <c r="BU1" s="69"/>
-      <c r="BV1" s="69"/>
-      <c r="BW1" s="69"/>
-      <c r="BX1" s="69"/>
-      <c r="BY1" s="69"/>
-      <c r="BZ1" s="69"/>
-      <c r="CA1" s="69"/>
-      <c r="CB1" s="69"/>
-      <c r="CC1" s="69"/>
-      <c r="CD1" s="69"/>
-      <c r="CE1" s="69"/>
-      <c r="CF1" s="69"/>
-      <c r="CG1" s="69"/>
-      <c r="CH1" s="69"/>
-      <c r="CI1" s="69"/>
-      <c r="CJ1" s="69"/>
-      <c r="CK1" s="69"/>
-      <c r="CL1" s="69"/>
-      <c r="CM1" s="69"/>
-      <c r="CN1" s="69"/>
-      <c r="CO1" s="69"/>
-      <c r="CP1" s="69"/>
-      <c r="CQ1" s="69"/>
-      <c r="CR1" s="69"/>
-      <c r="CS1" s="69"/>
-      <c r="CT1" s="69"/>
-      <c r="CU1" s="69"/>
-      <c r="CV1" s="69"/>
-      <c r="CW1" s="69"/>
-      <c r="CX1" s="69"/>
-      <c r="CY1" s="69"/>
-      <c r="CZ1" s="69"/>
-      <c r="DA1" s="69"/>
-      <c r="DB1" s="69"/>
-      <c r="DC1" s="69"/>
-      <c r="DD1" s="69"/>
-      <c r="DE1" s="69"/>
-      <c r="DF1" s="69"/>
-      <c r="DG1" s="69"/>
-      <c r="DH1" s="69"/>
-      <c r="DI1" s="69"/>
-      <c r="DJ1" s="69"/>
-      <c r="DK1" s="69"/>
-      <c r="DL1" s="69"/>
-      <c r="DM1" s="69"/>
-      <c r="DN1" s="69"/>
-      <c r="DO1" s="69"/>
-      <c r="DP1" s="69"/>
-      <c r="DQ1" s="69"/>
-      <c r="DR1" s="69"/>
-      <c r="DS1" s="69"/>
-      <c r="DT1" s="69"/>
-      <c r="DU1" s="69"/>
-      <c r="DV1" s="69"/>
-      <c r="DW1" s="69"/>
-      <c r="DX1" s="69"/>
-      <c r="DY1" s="69"/>
-      <c r="DZ1" s="69"/>
-      <c r="EA1" s="69"/>
-      <c r="EB1" s="69"/>
-      <c r="EC1" s="69"/>
-      <c r="ED1" s="69"/>
-      <c r="EE1" s="69"/>
-      <c r="EF1" s="69"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="70"/>
+      <c r="BK1" s="70"/>
+      <c r="BL1" s="70"/>
+      <c r="BM1" s="70"/>
+      <c r="BN1" s="70"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="70"/>
+      <c r="BQ1" s="70"/>
+      <c r="BR1" s="70"/>
+      <c r="BS1" s="70"/>
+      <c r="BT1" s="70"/>
+      <c r="BU1" s="70"/>
+      <c r="BV1" s="70"/>
+      <c r="BW1" s="70"/>
+      <c r="BX1" s="70"/>
+      <c r="BY1" s="70"/>
+      <c r="BZ1" s="70"/>
+      <c r="CA1" s="70"/>
+      <c r="CB1" s="70"/>
+      <c r="CC1" s="70"/>
+      <c r="CD1" s="70"/>
+      <c r="CE1" s="70"/>
+      <c r="CF1" s="70"/>
+      <c r="CG1" s="70"/>
+      <c r="CH1" s="70"/>
+      <c r="CI1" s="70"/>
+      <c r="CJ1" s="70"/>
+      <c r="CK1" s="70"/>
+      <c r="CL1" s="70"/>
+      <c r="CM1" s="70"/>
+      <c r="CN1" s="70"/>
+      <c r="CO1" s="70"/>
+      <c r="CP1" s="70"/>
+      <c r="CQ1" s="70"/>
+      <c r="CR1" s="70"/>
+      <c r="CS1" s="70"/>
+      <c r="CT1" s="70"/>
+      <c r="CU1" s="70"/>
+      <c r="CV1" s="70"/>
+      <c r="CW1" s="70"/>
+      <c r="CX1" s="70"/>
+      <c r="CY1" s="70"/>
+      <c r="CZ1" s="70"/>
+      <c r="DA1" s="70"/>
+      <c r="DB1" s="70"/>
+      <c r="DC1" s="70"/>
+      <c r="DD1" s="70"/>
+      <c r="DE1" s="70"/>
+      <c r="DF1" s="70"/>
+      <c r="DG1" s="70"/>
+      <c r="DH1" s="70"/>
+      <c r="DI1" s="70"/>
+      <c r="DJ1" s="70"/>
+      <c r="DK1" s="70"/>
+      <c r="DL1" s="70"/>
+      <c r="DM1" s="70"/>
+      <c r="DN1" s="70"/>
+      <c r="DO1" s="70"/>
+      <c r="DP1" s="70"/>
+      <c r="DQ1" s="70"/>
+      <c r="DR1" s="70"/>
+      <c r="DS1" s="70"/>
+      <c r="DT1" s="70"/>
+      <c r="DU1" s="70"/>
+      <c r="DV1" s="70"/>
+      <c r="DW1" s="70"/>
+      <c r="DX1" s="70"/>
+      <c r="DY1" s="70"/>
+      <c r="DZ1" s="70"/>
+      <c r="EA1" s="70"/>
+      <c r="EB1" s="70"/>
+      <c r="EC1" s="70"/>
+      <c r="ED1" s="70"/>
+      <c r="EE1" s="70"/>
+      <c r="EF1" s="70"/>
     </row>
     <row r="2" spans="1:136" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -1474,29 +1477,29 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="AC2" s="68" t="s">
+      <c r="J2" s="73"/>
+      <c r="AC2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
       <c r="AT2" s="74" t="s">
         <v>1</v>
       </c>
@@ -1588,117 +1591,117 @@
       <c r="E3" s="5"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
-      <c r="AC3" s="73" t="s">
+      <c r="AC3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="66" t="s">
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="73" t="s">
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="73" t="s">
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="68"/>
+      <c r="BC3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="67"/>
-      <c r="BJ3" s="73" t="s">
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="68"/>
+      <c r="BJ3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="73" t="s">
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="66"/>
-      <c r="BT3" s="66"/>
-      <c r="BU3" s="66"/>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="67"/>
-      <c r="BX3" s="73" t="s">
+      <c r="BR3" s="67"/>
+      <c r="BS3" s="67"/>
+      <c r="BT3" s="67"/>
+      <c r="BU3" s="67"/>
+      <c r="BV3" s="67"/>
+      <c r="BW3" s="68"/>
+      <c r="BX3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="67"/>
-      <c r="CE3" s="73" t="s">
+      <c r="BY3" s="67"/>
+      <c r="BZ3" s="67"/>
+      <c r="CA3" s="67"/>
+      <c r="CB3" s="67"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="68"/>
+      <c r="CE3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="CF3" s="66"/>
-      <c r="CG3" s="66"/>
-      <c r="CH3" s="66"/>
-      <c r="CI3" s="66"/>
-      <c r="CJ3" s="66"/>
-      <c r="CK3" s="67"/>
-      <c r="CL3" s="73" t="s">
+      <c r="CF3" s="67"/>
+      <c r="CG3" s="67"/>
+      <c r="CH3" s="67"/>
+      <c r="CI3" s="67"/>
+      <c r="CJ3" s="67"/>
+      <c r="CK3" s="68"/>
+      <c r="CL3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="CM3" s="66"/>
-      <c r="CN3" s="66"/>
-      <c r="CO3" s="66"/>
-      <c r="CP3" s="66"/>
-      <c r="CQ3" s="66"/>
-      <c r="CR3" s="67"/>
-      <c r="CS3" s="73" t="s">
+      <c r="CM3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="68"/>
+      <c r="CS3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="CT3" s="66"/>
-      <c r="CU3" s="66"/>
-      <c r="CV3" s="66"/>
-      <c r="CW3" s="66"/>
-      <c r="CX3" s="66"/>
-      <c r="CY3" s="66"/>
-      <c r="CZ3" s="66"/>
-      <c r="DA3" s="66"/>
-      <c r="DB3" s="67"/>
-      <c r="DC3" s="73" t="s">
+      <c r="CT3" s="67"/>
+      <c r="CU3" s="67"/>
+      <c r="CV3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
+      <c r="CZ3" s="67"/>
+      <c r="DA3" s="67"/>
+      <c r="DB3" s="68"/>
+      <c r="DC3" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="DD3" s="66"/>
-      <c r="DE3" s="66"/>
-      <c r="DF3" s="66"/>
-      <c r="DG3" s="66"/>
-      <c r="DH3" s="66"/>
-      <c r="DI3" s="66"/>
-      <c r="DJ3" s="66"/>
-      <c r="DK3" s="66"/>
-      <c r="DL3" s="66"/>
-      <c r="DM3" s="67"/>
+      <c r="DD3" s="67"/>
+      <c r="DE3" s="67"/>
+      <c r="DF3" s="67"/>
+      <c r="DG3" s="67"/>
+      <c r="DH3" s="67"/>
+      <c r="DI3" s="67"/>
+      <c r="DJ3" s="67"/>
+      <c r="DK3" s="67"/>
+      <c r="DL3" s="67"/>
+      <c r="DM3" s="68"/>
     </row>
     <row r="4" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -2242,10 +2245,10 @@
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="L6" t="s">
         <v>39</v>
       </c>
@@ -5197,6 +5200,9 @@
       <c r="EF26" s="30"/>
     </row>
     <row r="27" spans="1:136" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
       <c r="N27" s="52"/>
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
@@ -5852,24 +5858,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="CE3:CK3"/>
+    <mergeCell ref="CL3:CR3"/>
+    <mergeCell ref="CS3:DB3"/>
+    <mergeCell ref="AT2:BW2"/>
+    <mergeCell ref="BX2:DB2"/>
+    <mergeCell ref="AT3:BB3"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="BJ3:BP3"/>
+    <mergeCell ref="BQ3:BW3"/>
     <mergeCell ref="BX3:CD3"/>
     <mergeCell ref="AC3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AC2:AS2"/>
     <mergeCell ref="O1:EF1"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="CE3:CK3"/>
-    <mergeCell ref="CL3:CR3"/>
-    <mergeCell ref="CS3:DB3"/>
     <mergeCell ref="DC3:DM3"/>
-    <mergeCell ref="AT2:BW2"/>
-    <mergeCell ref="BX2:DB2"/>
     <mergeCell ref="DC2:DM2"/>
-    <mergeCell ref="AT3:BB3"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BJ3:BP3"/>
-    <mergeCell ref="BQ3:BW3"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E26">
     <cfRule type="iconSet" priority="1">

--- a/Documentación/Cronograma.xlsx
+++ b/Documentación/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52646\Desktop\ProyectoBDITE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FA43F-C2A7-4E38-9FFD-055D22F5C0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3489832E-C15F-4AE3-93F9-983B838D7ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77C97420-D882-4AEC-80C4-94E9F25F4DD9}"/>
   </bookViews>
@@ -945,6 +945,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,25 +963,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770ABD26-0474-45FB-9EFD-7F425FDDCB3A}">
   <dimension ref="A1:EF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,130 +1342,130 @@
       <c r="E1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="70" t="s">
+      <c r="O1" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
-      <c r="BR1" s="70"/>
-      <c r="BS1" s="70"/>
-      <c r="BT1" s="70"/>
-      <c r="BU1" s="70"/>
-      <c r="BV1" s="70"/>
-      <c r="BW1" s="70"/>
-      <c r="BX1" s="70"/>
-      <c r="BY1" s="70"/>
-      <c r="BZ1" s="70"/>
-      <c r="CA1" s="70"/>
-      <c r="CB1" s="70"/>
-      <c r="CC1" s="70"/>
-      <c r="CD1" s="70"/>
-      <c r="CE1" s="70"/>
-      <c r="CF1" s="70"/>
-      <c r="CG1" s="70"/>
-      <c r="CH1" s="70"/>
-      <c r="CI1" s="70"/>
-      <c r="CJ1" s="70"/>
-      <c r="CK1" s="70"/>
-      <c r="CL1" s="70"/>
-      <c r="CM1" s="70"/>
-      <c r="CN1" s="70"/>
-      <c r="CO1" s="70"/>
-      <c r="CP1" s="70"/>
-      <c r="CQ1" s="70"/>
-      <c r="CR1" s="70"/>
-      <c r="CS1" s="70"/>
-      <c r="CT1" s="70"/>
-      <c r="CU1" s="70"/>
-      <c r="CV1" s="70"/>
-      <c r="CW1" s="70"/>
-      <c r="CX1" s="70"/>
-      <c r="CY1" s="70"/>
-      <c r="CZ1" s="70"/>
-      <c r="DA1" s="70"/>
-      <c r="DB1" s="70"/>
-      <c r="DC1" s="70"/>
-      <c r="DD1" s="70"/>
-      <c r="DE1" s="70"/>
-      <c r="DF1" s="70"/>
-      <c r="DG1" s="70"/>
-      <c r="DH1" s="70"/>
-      <c r="DI1" s="70"/>
-      <c r="DJ1" s="70"/>
-      <c r="DK1" s="70"/>
-      <c r="DL1" s="70"/>
-      <c r="DM1" s="70"/>
-      <c r="DN1" s="70"/>
-      <c r="DO1" s="70"/>
-      <c r="DP1" s="70"/>
-      <c r="DQ1" s="70"/>
-      <c r="DR1" s="70"/>
-      <c r="DS1" s="70"/>
-      <c r="DT1" s="70"/>
-      <c r="DU1" s="70"/>
-      <c r="DV1" s="70"/>
-      <c r="DW1" s="70"/>
-      <c r="DX1" s="70"/>
-      <c r="DY1" s="70"/>
-      <c r="DZ1" s="70"/>
-      <c r="EA1" s="70"/>
-      <c r="EB1" s="70"/>
-      <c r="EC1" s="70"/>
-      <c r="ED1" s="70"/>
-      <c r="EE1" s="70"/>
-      <c r="EF1" s="70"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
+      <c r="BG1" s="75"/>
+      <c r="BH1" s="75"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="75"/>
+      <c r="BK1" s="75"/>
+      <c r="BL1" s="75"/>
+      <c r="BM1" s="75"/>
+      <c r="BN1" s="75"/>
+      <c r="BO1" s="75"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
+      <c r="BR1" s="75"/>
+      <c r="BS1" s="75"/>
+      <c r="BT1" s="75"/>
+      <c r="BU1" s="75"/>
+      <c r="BV1" s="75"/>
+      <c r="BW1" s="75"/>
+      <c r="BX1" s="75"/>
+      <c r="BY1" s="75"/>
+      <c r="BZ1" s="75"/>
+      <c r="CA1" s="75"/>
+      <c r="CB1" s="75"/>
+      <c r="CC1" s="75"/>
+      <c r="CD1" s="75"/>
+      <c r="CE1" s="75"/>
+      <c r="CF1" s="75"/>
+      <c r="CG1" s="75"/>
+      <c r="CH1" s="75"/>
+      <c r="CI1" s="75"/>
+      <c r="CJ1" s="75"/>
+      <c r="CK1" s="75"/>
+      <c r="CL1" s="75"/>
+      <c r="CM1" s="75"/>
+      <c r="CN1" s="75"/>
+      <c r="CO1" s="75"/>
+      <c r="CP1" s="75"/>
+      <c r="CQ1" s="75"/>
+      <c r="CR1" s="75"/>
+      <c r="CS1" s="75"/>
+      <c r="CT1" s="75"/>
+      <c r="CU1" s="75"/>
+      <c r="CV1" s="75"/>
+      <c r="CW1" s="75"/>
+      <c r="CX1" s="75"/>
+      <c r="CY1" s="75"/>
+      <c r="CZ1" s="75"/>
+      <c r="DA1" s="75"/>
+      <c r="DB1" s="75"/>
+      <c r="DC1" s="75"/>
+      <c r="DD1" s="75"/>
+      <c r="DE1" s="75"/>
+      <c r="DF1" s="75"/>
+      <c r="DG1" s="75"/>
+      <c r="DH1" s="75"/>
+      <c r="DI1" s="75"/>
+      <c r="DJ1" s="75"/>
+      <c r="DK1" s="75"/>
+      <c r="DL1" s="75"/>
+      <c r="DM1" s="75"/>
+      <c r="DN1" s="75"/>
+      <c r="DO1" s="75"/>
+      <c r="DP1" s="75"/>
+      <c r="DQ1" s="75"/>
+      <c r="DR1" s="75"/>
+      <c r="DS1" s="75"/>
+      <c r="DT1" s="75"/>
+      <c r="DU1" s="75"/>
+      <c r="DV1" s="75"/>
+      <c r="DW1" s="75"/>
+      <c r="DX1" s="75"/>
+      <c r="DY1" s="75"/>
+      <c r="DZ1" s="75"/>
+      <c r="EA1" s="75"/>
+      <c r="EB1" s="75"/>
+      <c r="EC1" s="75"/>
+      <c r="ED1" s="75"/>
+      <c r="EE1" s="75"/>
+      <c r="EF1" s="75"/>
     </row>
     <row r="2" spans="1:136" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -1477,94 +1477,94 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="AC2" s="69" t="s">
+      <c r="J2" s="68"/>
+      <c r="AC2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="74" t="s">
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="74"/>
-      <c r="BD2" s="74"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="74"/>
-      <c r="BH2" s="74"/>
-      <c r="BI2" s="74"/>
-      <c r="BJ2" s="74"/>
-      <c r="BK2" s="74"/>
-      <c r="BL2" s="74"/>
-      <c r="BM2" s="74"/>
-      <c r="BN2" s="74"/>
-      <c r="BO2" s="74"/>
-      <c r="BP2" s="74"/>
-      <c r="BQ2" s="74"/>
-      <c r="BR2" s="74"/>
-      <c r="BS2" s="74"/>
-      <c r="BT2" s="74"/>
-      <c r="BU2" s="74"/>
-      <c r="BV2" s="74"/>
-      <c r="BW2" s="74"/>
-      <c r="BX2" s="75" t="s">
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="BY2" s="75"/>
-      <c r="BZ2" s="75"/>
-      <c r="CA2" s="75"/>
-      <c r="CB2" s="75"/>
-      <c r="CC2" s="75"/>
-      <c r="CD2" s="75"/>
-      <c r="CE2" s="75"/>
-      <c r="CF2" s="75"/>
-      <c r="CG2" s="75"/>
-      <c r="CH2" s="75"/>
-      <c r="CI2" s="75"/>
-      <c r="CJ2" s="75"/>
-      <c r="CK2" s="75"/>
-      <c r="CL2" s="75"/>
-      <c r="CM2" s="75"/>
-      <c r="CN2" s="75"/>
-      <c r="CO2" s="75"/>
-      <c r="CP2" s="75"/>
-      <c r="CQ2" s="75"/>
-      <c r="CR2" s="75"/>
-      <c r="CS2" s="75"/>
-      <c r="CT2" s="75"/>
-      <c r="CU2" s="75"/>
-      <c r="CV2" s="75"/>
-      <c r="CW2" s="75"/>
-      <c r="CX2" s="75"/>
-      <c r="CY2" s="75"/>
-      <c r="CZ2" s="75"/>
-      <c r="DA2" s="75"/>
-      <c r="DB2" s="75"/>
+      <c r="BY2" s="73"/>
+      <c r="BZ2" s="73"/>
+      <c r="CA2" s="73"/>
+      <c r="CB2" s="73"/>
+      <c r="CC2" s="73"/>
+      <c r="CD2" s="73"/>
+      <c r="CE2" s="73"/>
+      <c r="CF2" s="73"/>
+      <c r="CG2" s="73"/>
+      <c r="CH2" s="73"/>
+      <c r="CI2" s="73"/>
+      <c r="CJ2" s="73"/>
+      <c r="CK2" s="73"/>
+      <c r="CL2" s="73"/>
+      <c r="CM2" s="73"/>
+      <c r="CN2" s="73"/>
+      <c r="CO2" s="73"/>
+      <c r="CP2" s="73"/>
+      <c r="CQ2" s="73"/>
+      <c r="CR2" s="73"/>
+      <c r="CS2" s="73"/>
+      <c r="CT2" s="73"/>
+      <c r="CU2" s="73"/>
+      <c r="CV2" s="73"/>
+      <c r="CW2" s="73"/>
+      <c r="CX2" s="73"/>
+      <c r="CY2" s="73"/>
+      <c r="CZ2" s="73"/>
+      <c r="DA2" s="73"/>
+      <c r="DB2" s="73"/>
       <c r="DC2" s="76" t="s">
         <v>3</v>
       </c>
@@ -1591,117 +1591,117 @@
       <c r="E3" s="5"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
-      <c r="AC3" s="66" t="s">
+      <c r="AC3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="67" t="s">
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="66" t="s">
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="68"/>
-      <c r="BC3" s="66" t="s">
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="67"/>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="68"/>
-      <c r="BJ3" s="66" t="s">
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="70"/>
+      <c r="BH3" s="70"/>
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="66" t="s">
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="70"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="67"/>
-      <c r="BS3" s="67"/>
-      <c r="BT3" s="67"/>
-      <c r="BU3" s="67"/>
-      <c r="BV3" s="67"/>
-      <c r="BW3" s="68"/>
-      <c r="BX3" s="66" t="s">
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="71"/>
+      <c r="BX3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BY3" s="67"/>
-      <c r="BZ3" s="67"/>
-      <c r="CA3" s="67"/>
-      <c r="CB3" s="67"/>
-      <c r="CC3" s="67"/>
-      <c r="CD3" s="68"/>
-      <c r="CE3" s="66" t="s">
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="70"/>
+      <c r="CA3" s="70"/>
+      <c r="CB3" s="70"/>
+      <c r="CC3" s="70"/>
+      <c r="CD3" s="71"/>
+      <c r="CE3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="CF3" s="67"/>
-      <c r="CG3" s="67"/>
-      <c r="CH3" s="67"/>
-      <c r="CI3" s="67"/>
-      <c r="CJ3" s="67"/>
-      <c r="CK3" s="68"/>
-      <c r="CL3" s="66" t="s">
+      <c r="CF3" s="70"/>
+      <c r="CG3" s="70"/>
+      <c r="CH3" s="70"/>
+      <c r="CI3" s="70"/>
+      <c r="CJ3" s="70"/>
+      <c r="CK3" s="71"/>
+      <c r="CL3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="CM3" s="67"/>
-      <c r="CN3" s="67"/>
-      <c r="CO3" s="67"/>
-      <c r="CP3" s="67"/>
-      <c r="CQ3" s="67"/>
-      <c r="CR3" s="68"/>
-      <c r="CS3" s="66" t="s">
+      <c r="CM3" s="70"/>
+      <c r="CN3" s="70"/>
+      <c r="CO3" s="70"/>
+      <c r="CP3" s="70"/>
+      <c r="CQ3" s="70"/>
+      <c r="CR3" s="71"/>
+      <c r="CS3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="CT3" s="67"/>
-      <c r="CU3" s="67"/>
-      <c r="CV3" s="67"/>
-      <c r="CW3" s="67"/>
-      <c r="CX3" s="67"/>
-      <c r="CY3" s="67"/>
-      <c r="CZ3" s="67"/>
-      <c r="DA3" s="67"/>
-      <c r="DB3" s="68"/>
-      <c r="DC3" s="66" t="s">
+      <c r="CT3" s="70"/>
+      <c r="CU3" s="70"/>
+      <c r="CV3" s="70"/>
+      <c r="CW3" s="70"/>
+      <c r="CX3" s="70"/>
+      <c r="CY3" s="70"/>
+      <c r="CZ3" s="70"/>
+      <c r="DA3" s="70"/>
+      <c r="DB3" s="71"/>
+      <c r="DC3" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="DD3" s="67"/>
-      <c r="DE3" s="67"/>
-      <c r="DF3" s="67"/>
-      <c r="DG3" s="67"/>
-      <c r="DH3" s="67"/>
-      <c r="DI3" s="67"/>
-      <c r="DJ3" s="67"/>
-      <c r="DK3" s="67"/>
-      <c r="DL3" s="67"/>
-      <c r="DM3" s="68"/>
+      <c r="DD3" s="70"/>
+      <c r="DE3" s="70"/>
+      <c r="DF3" s="70"/>
+      <c r="DG3" s="70"/>
+      <c r="DH3" s="70"/>
+      <c r="DI3" s="70"/>
+      <c r="DJ3" s="70"/>
+      <c r="DK3" s="70"/>
+      <c r="DL3" s="70"/>
+      <c r="DM3" s="71"/>
     </row>
     <row r="4" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -2245,10 +2245,10 @@
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="71"/>
+      <c r="J6" s="66"/>
       <c r="L6" t="s">
         <v>39</v>
       </c>
@@ -5858,6 +5858,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O1:EF1"/>
+    <mergeCell ref="DC3:DM3"/>
+    <mergeCell ref="DC2:DM2"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="CE3:CK3"/>
@@ -5873,9 +5876,6 @@
     <mergeCell ref="AC3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AC2:AS2"/>
-    <mergeCell ref="O1:EF1"/>
-    <mergeCell ref="DC3:DM3"/>
-    <mergeCell ref="DC2:DM2"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E26">
     <cfRule type="iconSet" priority="1">

--- a/Documentación/Cronograma.xlsx
+++ b/Documentación/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52646\Desktop\ProyectoBDITE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3489832E-C15F-4AE3-93F9-983B838D7ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D8E5E-CCBD-4C2A-87B6-3B469A3421E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77C97420-D882-4AEC-80C4-94E9F25F4DD9}"/>
   </bookViews>
@@ -945,13 +945,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,6 +957,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,12 +976,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770ABD26-0474-45FB-9EFD-7F425FDDCB3A}">
   <dimension ref="A1:EF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,130 +1342,130 @@
       <c r="E1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="75"/>
-      <c r="BD1" s="75"/>
-      <c r="BE1" s="75"/>
-      <c r="BF1" s="75"/>
-      <c r="BG1" s="75"/>
-      <c r="BH1" s="75"/>
-      <c r="BI1" s="75"/>
-      <c r="BJ1" s="75"/>
-      <c r="BK1" s="75"/>
-      <c r="BL1" s="75"/>
-      <c r="BM1" s="75"/>
-      <c r="BN1" s="75"/>
-      <c r="BO1" s="75"/>
-      <c r="BP1" s="75"/>
-      <c r="BQ1" s="75"/>
-      <c r="BR1" s="75"/>
-      <c r="BS1" s="75"/>
-      <c r="BT1" s="75"/>
-      <c r="BU1" s="75"/>
-      <c r="BV1" s="75"/>
-      <c r="BW1" s="75"/>
-      <c r="BX1" s="75"/>
-      <c r="BY1" s="75"/>
-      <c r="BZ1" s="75"/>
-      <c r="CA1" s="75"/>
-      <c r="CB1" s="75"/>
-      <c r="CC1" s="75"/>
-      <c r="CD1" s="75"/>
-      <c r="CE1" s="75"/>
-      <c r="CF1" s="75"/>
-      <c r="CG1" s="75"/>
-      <c r="CH1" s="75"/>
-      <c r="CI1" s="75"/>
-      <c r="CJ1" s="75"/>
-      <c r="CK1" s="75"/>
-      <c r="CL1" s="75"/>
-      <c r="CM1" s="75"/>
-      <c r="CN1" s="75"/>
-      <c r="CO1" s="75"/>
-      <c r="CP1" s="75"/>
-      <c r="CQ1" s="75"/>
-      <c r="CR1" s="75"/>
-      <c r="CS1" s="75"/>
-      <c r="CT1" s="75"/>
-      <c r="CU1" s="75"/>
-      <c r="CV1" s="75"/>
-      <c r="CW1" s="75"/>
-      <c r="CX1" s="75"/>
-      <c r="CY1" s="75"/>
-      <c r="CZ1" s="75"/>
-      <c r="DA1" s="75"/>
-      <c r="DB1" s="75"/>
-      <c r="DC1" s="75"/>
-      <c r="DD1" s="75"/>
-      <c r="DE1" s="75"/>
-      <c r="DF1" s="75"/>
-      <c r="DG1" s="75"/>
-      <c r="DH1" s="75"/>
-      <c r="DI1" s="75"/>
-      <c r="DJ1" s="75"/>
-      <c r="DK1" s="75"/>
-      <c r="DL1" s="75"/>
-      <c r="DM1" s="75"/>
-      <c r="DN1" s="75"/>
-      <c r="DO1" s="75"/>
-      <c r="DP1" s="75"/>
-      <c r="DQ1" s="75"/>
-      <c r="DR1" s="75"/>
-      <c r="DS1" s="75"/>
-      <c r="DT1" s="75"/>
-      <c r="DU1" s="75"/>
-      <c r="DV1" s="75"/>
-      <c r="DW1" s="75"/>
-      <c r="DX1" s="75"/>
-      <c r="DY1" s="75"/>
-      <c r="DZ1" s="75"/>
-      <c r="EA1" s="75"/>
-      <c r="EB1" s="75"/>
-      <c r="EC1" s="75"/>
-      <c r="ED1" s="75"/>
-      <c r="EE1" s="75"/>
-      <c r="EF1" s="75"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="66"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+      <c r="BS1" s="66"/>
+      <c r="BT1" s="66"/>
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="66"/>
+      <c r="CD1" s="66"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CJ1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+      <c r="CR1" s="66"/>
+      <c r="CS1" s="66"/>
+      <c r="CT1" s="66"/>
+      <c r="CU1" s="66"/>
+      <c r="CV1" s="66"/>
+      <c r="CW1" s="66"/>
+      <c r="CX1" s="66"/>
+      <c r="CY1" s="66"/>
+      <c r="CZ1" s="66"/>
+      <c r="DA1" s="66"/>
+      <c r="DB1" s="66"/>
+      <c r="DC1" s="66"/>
+      <c r="DD1" s="66"/>
+      <c r="DE1" s="66"/>
+      <c r="DF1" s="66"/>
+      <c r="DG1" s="66"/>
+      <c r="DH1" s="66"/>
+      <c r="DI1" s="66"/>
+      <c r="DJ1" s="66"/>
+      <c r="DK1" s="66"/>
+      <c r="DL1" s="66"/>
+      <c r="DM1" s="66"/>
+      <c r="DN1" s="66"/>
+      <c r="DO1" s="66"/>
+      <c r="DP1" s="66"/>
+      <c r="DQ1" s="66"/>
+      <c r="DR1" s="66"/>
+      <c r="DS1" s="66"/>
+      <c r="DT1" s="66"/>
+      <c r="DU1" s="66"/>
+      <c r="DV1" s="66"/>
+      <c r="DW1" s="66"/>
+      <c r="DX1" s="66"/>
+      <c r="DY1" s="66"/>
+      <c r="DZ1" s="66"/>
+      <c r="EA1" s="66"/>
+      <c r="EB1" s="66"/>
+      <c r="EC1" s="66"/>
+      <c r="ED1" s="66"/>
+      <c r="EE1" s="66"/>
+      <c r="EF1" s="66"/>
     </row>
     <row r="2" spans="1:136" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -1475,109 +1475,111 @@
         <v>18</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
       <c r="E2" s="11"/>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="AC2" s="74" t="s">
+      <c r="J2" s="73"/>
+      <c r="AC2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="72" t="s">
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="72"/>
-      <c r="BS2" s="72"/>
-      <c r="BT2" s="72"/>
-      <c r="BU2" s="72"/>
-      <c r="BV2" s="72"/>
-      <c r="BW2" s="72"/>
-      <c r="BX2" s="73" t="s">
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74"/>
+      <c r="BG2" s="74"/>
+      <c r="BH2" s="74"/>
+      <c r="BI2" s="74"/>
+      <c r="BJ2" s="74"/>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
+      <c r="BR2" s="74"/>
+      <c r="BS2" s="74"/>
+      <c r="BT2" s="74"/>
+      <c r="BU2" s="74"/>
+      <c r="BV2" s="74"/>
+      <c r="BW2" s="74"/>
+      <c r="BX2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="73"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="73"/>
-      <c r="CC2" s="73"/>
-      <c r="CD2" s="73"/>
-      <c r="CE2" s="73"/>
-      <c r="CF2" s="73"/>
-      <c r="CG2" s="73"/>
-      <c r="CH2" s="73"/>
-      <c r="CI2" s="73"/>
-      <c r="CJ2" s="73"/>
-      <c r="CK2" s="73"/>
-      <c r="CL2" s="73"/>
-      <c r="CM2" s="73"/>
-      <c r="CN2" s="73"/>
-      <c r="CO2" s="73"/>
-      <c r="CP2" s="73"/>
-      <c r="CQ2" s="73"/>
-      <c r="CR2" s="73"/>
-      <c r="CS2" s="73"/>
-      <c r="CT2" s="73"/>
-      <c r="CU2" s="73"/>
-      <c r="CV2" s="73"/>
-      <c r="CW2" s="73"/>
-      <c r="CX2" s="73"/>
-      <c r="CY2" s="73"/>
-      <c r="CZ2" s="73"/>
-      <c r="DA2" s="73"/>
-      <c r="DB2" s="73"/>
-      <c r="DC2" s="76" t="s">
+      <c r="BY2" s="75"/>
+      <c r="BZ2" s="75"/>
+      <c r="CA2" s="75"/>
+      <c r="CB2" s="75"/>
+      <c r="CC2" s="75"/>
+      <c r="CD2" s="75"/>
+      <c r="CE2" s="75"/>
+      <c r="CF2" s="75"/>
+      <c r="CG2" s="75"/>
+      <c r="CH2" s="75"/>
+      <c r="CI2" s="75"/>
+      <c r="CJ2" s="75"/>
+      <c r="CK2" s="75"/>
+      <c r="CL2" s="75"/>
+      <c r="CM2" s="75"/>
+      <c r="CN2" s="75"/>
+      <c r="CO2" s="75"/>
+      <c r="CP2" s="75"/>
+      <c r="CQ2" s="75"/>
+      <c r="CR2" s="75"/>
+      <c r="CS2" s="75"/>
+      <c r="CT2" s="75"/>
+      <c r="CU2" s="75"/>
+      <c r="CV2" s="75"/>
+      <c r="CW2" s="75"/>
+      <c r="CX2" s="75"/>
+      <c r="CY2" s="75"/>
+      <c r="CZ2" s="75"/>
+      <c r="DA2" s="75"/>
+      <c r="DB2" s="75"/>
+      <c r="DC2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="DD2" s="76"/>
-      <c r="DE2" s="76"/>
-      <c r="DF2" s="76"/>
-      <c r="DG2" s="76"/>
-      <c r="DH2" s="76"/>
-      <c r="DI2" s="76"/>
-      <c r="DJ2" s="76"/>
-      <c r="DK2" s="76"/>
-      <c r="DL2" s="76"/>
-      <c r="DM2" s="76"/>
+      <c r="DD2" s="70"/>
+      <c r="DE2" s="70"/>
+      <c r="DF2" s="70"/>
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="70"/>
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
     </row>
     <row r="3" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -1587,121 +1589,123 @@
         <v>20</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
-      <c r="AC3" s="69" t="s">
+      <c r="AC3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="70" t="s">
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="69" t="s">
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="70"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="69" t="s">
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="70"/>
-      <c r="BF3" s="70"/>
-      <c r="BG3" s="70"/>
-      <c r="BH3" s="70"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="69" t="s">
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
+      <c r="BF3" s="68"/>
+      <c r="BG3" s="68"/>
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="BK3" s="70"/>
-      <c r="BL3" s="70"/>
-      <c r="BM3" s="70"/>
-      <c r="BN3" s="70"/>
-      <c r="BO3" s="70"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="69" t="s">
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="68"/>
+      <c r="BN3" s="68"/>
+      <c r="BO3" s="68"/>
+      <c r="BP3" s="69"/>
+      <c r="BQ3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="70"/>
-      <c r="BS3" s="70"/>
-      <c r="BT3" s="70"/>
-      <c r="BU3" s="70"/>
-      <c r="BV3" s="70"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="69" t="s">
+      <c r="BR3" s="68"/>
+      <c r="BS3" s="68"/>
+      <c r="BT3" s="68"/>
+      <c r="BU3" s="68"/>
+      <c r="BV3" s="68"/>
+      <c r="BW3" s="69"/>
+      <c r="BX3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="BY3" s="70"/>
-      <c r="BZ3" s="70"/>
-      <c r="CA3" s="70"/>
-      <c r="CB3" s="70"/>
-      <c r="CC3" s="70"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="69" t="s">
+      <c r="BY3" s="68"/>
+      <c r="BZ3" s="68"/>
+      <c r="CA3" s="68"/>
+      <c r="CB3" s="68"/>
+      <c r="CC3" s="68"/>
+      <c r="CD3" s="69"/>
+      <c r="CE3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="CF3" s="70"/>
-      <c r="CG3" s="70"/>
-      <c r="CH3" s="70"/>
-      <c r="CI3" s="70"/>
-      <c r="CJ3" s="70"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="69" t="s">
+      <c r="CF3" s="68"/>
+      <c r="CG3" s="68"/>
+      <c r="CH3" s="68"/>
+      <c r="CI3" s="68"/>
+      <c r="CJ3" s="68"/>
+      <c r="CK3" s="69"/>
+      <c r="CL3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="CM3" s="70"/>
-      <c r="CN3" s="70"/>
-      <c r="CO3" s="70"/>
-      <c r="CP3" s="70"/>
-      <c r="CQ3" s="70"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="69" t="s">
+      <c r="CM3" s="68"/>
+      <c r="CN3" s="68"/>
+      <c r="CO3" s="68"/>
+      <c r="CP3" s="68"/>
+      <c r="CQ3" s="68"/>
+      <c r="CR3" s="69"/>
+      <c r="CS3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="CT3" s="70"/>
-      <c r="CU3" s="70"/>
-      <c r="CV3" s="70"/>
-      <c r="CW3" s="70"/>
-      <c r="CX3" s="70"/>
-      <c r="CY3" s="70"/>
-      <c r="CZ3" s="70"/>
-      <c r="DA3" s="70"/>
-      <c r="DB3" s="71"/>
-      <c r="DC3" s="69" t="s">
+      <c r="CT3" s="68"/>
+      <c r="CU3" s="68"/>
+      <c r="CV3" s="68"/>
+      <c r="CW3" s="68"/>
+      <c r="CX3" s="68"/>
+      <c r="CY3" s="68"/>
+      <c r="CZ3" s="68"/>
+      <c r="DA3" s="68"/>
+      <c r="DB3" s="69"/>
+      <c r="DC3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="DD3" s="70"/>
-      <c r="DE3" s="70"/>
-      <c r="DF3" s="70"/>
-      <c r="DG3" s="70"/>
-      <c r="DH3" s="70"/>
-      <c r="DI3" s="70"/>
-      <c r="DJ3" s="70"/>
-      <c r="DK3" s="70"/>
-      <c r="DL3" s="70"/>
-      <c r="DM3" s="71"/>
+      <c r="DD3" s="68"/>
+      <c r="DE3" s="68"/>
+      <c r="DF3" s="68"/>
+      <c r="DG3" s="68"/>
+      <c r="DH3" s="68"/>
+      <c r="DI3" s="68"/>
+      <c r="DJ3" s="68"/>
+      <c r="DK3" s="68"/>
+      <c r="DL3" s="68"/>
+      <c r="DM3" s="69"/>
     </row>
     <row r="4" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -2245,10 +2249,10 @@
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="66"/>
+      <c r="J6" s="71"/>
       <c r="L6" t="s">
         <v>39</v>
       </c>
@@ -5858,6 +5862,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AJ3:AS3"/>
+    <mergeCell ref="AC2:AS2"/>
     <mergeCell ref="O1:EF1"/>
     <mergeCell ref="DC3:DM3"/>
     <mergeCell ref="DC2:DM2"/>
@@ -5874,8 +5880,6 @@
     <mergeCell ref="BQ3:BW3"/>
     <mergeCell ref="BX3:CD3"/>
     <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="AJ3:AS3"/>
-    <mergeCell ref="AC2:AS2"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E26">
     <cfRule type="iconSet" priority="1">
